--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nlgn2-Nrxn2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nlgn2-Nrxn2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.859580666666667</v>
+        <v>1.164555333333333</v>
       </c>
       <c r="H2">
-        <v>5.578742</v>
+        <v>3.493666</v>
       </c>
       <c r="I2">
-        <v>0.09135611778511415</v>
+        <v>0.05923394707027321</v>
       </c>
       <c r="J2">
-        <v>0.09135611778511415</v>
+        <v>0.05923394707027322</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.039512</v>
+        <v>0.007742333333333334</v>
       </c>
       <c r="N2">
-        <v>0.118536</v>
+        <v>0.023227</v>
       </c>
       <c r="O2">
-        <v>0.006183359004302676</v>
+        <v>0.001217676423630818</v>
       </c>
       <c r="P2">
-        <v>0.006183359004302676</v>
+        <v>0.001217676423630818</v>
       </c>
       <c r="Q2">
-        <v>0.07347575130133334</v>
+        <v>0.009016375575777778</v>
       </c>
       <c r="R2">
-        <v>0.6612817617119999</v>
+        <v>0.081147380182</v>
       </c>
       <c r="S2">
-        <v>0.0005648876735047214</v>
+        <v>7.212778082606745E-05</v>
       </c>
       <c r="T2">
-        <v>0.0005648876735047214</v>
+        <v>7.212778082606745E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.859580666666667</v>
+        <v>1.164555333333333</v>
       </c>
       <c r="H3">
-        <v>5.578742</v>
+        <v>3.493666</v>
       </c>
       <c r="I3">
-        <v>0.09135611778511415</v>
+        <v>0.05923394707027321</v>
       </c>
       <c r="J3">
-        <v>0.09135611778511415</v>
+        <v>0.05923394707027322</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>18.117162</v>
       </c>
       <c r="O3">
-        <v>0.9450708374258476</v>
+        <v>0.9497929577862038</v>
       </c>
       <c r="P3">
-        <v>0.9450708374258477</v>
+        <v>0.9497929577862039</v>
       </c>
       <c r="Q3">
-        <v>11.230108063356</v>
+        <v>7.032812543988</v>
       </c>
       <c r="R3">
-        <v>101.070972570204</v>
+        <v>63.295312895892</v>
       </c>
       <c r="S3">
-        <v>0.08633800273915221</v>
+        <v>0.05625998578922623</v>
       </c>
       <c r="T3">
-        <v>0.08633800273915222</v>
+        <v>0.05625998578922625</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.859580666666667</v>
+        <v>1.164555333333333</v>
       </c>
       <c r="H4">
-        <v>5.578742</v>
+        <v>3.493666</v>
       </c>
       <c r="I4">
-        <v>0.09135611778511415</v>
+        <v>0.05923394707027321</v>
       </c>
       <c r="J4">
-        <v>0.09135611778511415</v>
+        <v>0.05923394707027322</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3114883333333333</v>
+        <v>0.3114883333333334</v>
       </c>
       <c r="N4">
-        <v>0.934465</v>
+        <v>0.9344650000000001</v>
       </c>
       <c r="O4">
-        <v>0.04874580356984966</v>
+        <v>0.04898936579016542</v>
       </c>
       <c r="P4">
-        <v>0.04874580356984967</v>
+        <v>0.04898936579016543</v>
       </c>
       <c r="Q4">
-        <v>0.5792376825588889</v>
+        <v>0.3627453998544445</v>
       </c>
       <c r="R4">
-        <v>5.21313914303</v>
+        <v>3.26470859869</v>
       </c>
       <c r="S4">
-        <v>0.004453227372457224</v>
+        <v>0.002901833500220911</v>
       </c>
       <c r="T4">
-        <v>0.004453227372457224</v>
+        <v>0.002901833500220912</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>32.373574</v>
       </c>
       <c r="I5">
-        <v>0.5301417487077033</v>
+        <v>0.5488831985632208</v>
       </c>
       <c r="J5">
-        <v>0.5301417487077033</v>
+        <v>0.5488831985632209</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.039512</v>
+        <v>0.007742333333333334</v>
       </c>
       <c r="N5">
-        <v>0.118536</v>
+        <v>0.023227</v>
       </c>
       <c r="O5">
-        <v>0.006183359004302676</v>
+        <v>0.001217676423630818</v>
       </c>
       <c r="P5">
-        <v>0.006183359004302676</v>
+        <v>0.001217676423630818</v>
       </c>
       <c r="Q5">
-        <v>0.4263815519626667</v>
+        <v>0.08354900036644447</v>
       </c>
       <c r="R5">
-        <v>3.837433967664</v>
+        <v>0.7519410032980002</v>
       </c>
       <c r="S5">
-        <v>0.003278056755428543</v>
+        <v>0.0006683621302175067</v>
       </c>
       <c r="T5">
-        <v>0.003278056755428543</v>
+        <v>0.0006683621302175068</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>32.373574</v>
       </c>
       <c r="I6">
-        <v>0.5301417487077033</v>
+        <v>0.5488831985632208</v>
       </c>
       <c r="J6">
-        <v>0.5301417487077033</v>
+        <v>0.5488831985632209</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>18.117162</v>
       </c>
       <c r="O6">
-        <v>0.9450708374258476</v>
+        <v>0.9497929577862038</v>
       </c>
       <c r="P6">
-        <v>0.9450708374258477</v>
+        <v>0.9497929577862039</v>
       </c>
       <c r="Q6">
         <v>65.16858718633202</v>
@@ -818,10 +818,10 @@
         <v>586.5172846769881</v>
       </c>
       <c r="S6">
-        <v>0.5010215064055924</v>
+        <v>0.5213253966425136</v>
       </c>
       <c r="T6">
-        <v>0.5010215064055924</v>
+        <v>0.5213253966425138</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>32.373574</v>
       </c>
       <c r="I7">
-        <v>0.5301417487077033</v>
+        <v>0.5488831985632208</v>
       </c>
       <c r="J7">
-        <v>0.5301417487077033</v>
+        <v>0.5488831985632209</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3114883333333333</v>
+        <v>0.3114883333333334</v>
       </c>
       <c r="N7">
-        <v>0.934465</v>
+        <v>0.9344650000000001</v>
       </c>
       <c r="O7">
-        <v>0.04874580356984966</v>
+        <v>0.04898936579016542</v>
       </c>
       <c r="P7">
-        <v>0.04874580356984967</v>
+        <v>0.04898936579016543</v>
       </c>
       <c r="Q7">
         <v>3.361330203101112</v>
       </c>
       <c r="R7">
-        <v>30.25197182791</v>
+        <v>30.25197182791001</v>
       </c>
       <c r="S7">
-        <v>0.0258421855466823</v>
+        <v>0.02688943979048962</v>
       </c>
       <c r="T7">
-        <v>0.02584218554668231</v>
+        <v>0.02688943979048963</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>23.113567</v>
       </c>
       <c r="I8">
-        <v>0.3785021335071827</v>
+        <v>0.391882854366506</v>
       </c>
       <c r="J8">
-        <v>0.3785021335071827</v>
+        <v>0.3918828543665061</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -924,28 +924,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.039512</v>
+        <v>0.007742333333333334</v>
       </c>
       <c r="N8">
-        <v>0.118536</v>
+        <v>0.023227</v>
       </c>
       <c r="O8">
-        <v>0.006183359004302676</v>
+        <v>0.001217676423630818</v>
       </c>
       <c r="P8">
-        <v>0.006183359004302676</v>
+        <v>0.001217676423630818</v>
       </c>
       <c r="Q8">
-        <v>0.3044210864346666</v>
+        <v>0.05965098007877778</v>
       </c>
       <c r="R8">
-        <v>2.739789777912</v>
+        <v>0.536858820709</v>
       </c>
       <c r="S8">
-        <v>0.002340414575369412</v>
+        <v>0.0004771865125872437</v>
       </c>
       <c r="T8">
-        <v>0.002340414575369412</v>
+        <v>0.0004771865125872437</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>23.113567</v>
       </c>
       <c r="I9">
-        <v>0.3785021335071827</v>
+        <v>0.391882854366506</v>
       </c>
       <c r="J9">
-        <v>0.3785021335071827</v>
+        <v>0.3918828543665061</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>18.117162</v>
       </c>
       <c r="O9">
-        <v>0.9450708374258476</v>
+        <v>0.9497929577862038</v>
       </c>
       <c r="P9">
-        <v>0.9450708374258477</v>
+        <v>0.9497929577862039</v>
       </c>
       <c r="Q9">
         <v>46.528026415206</v>
@@ -1004,10 +1004,10 @@
         <v>418.752237736854</v>
       </c>
       <c r="S9">
-        <v>0.3577113282811031</v>
+        <v>0.3722075753544639</v>
       </c>
       <c r="T9">
-        <v>0.3577113282811032</v>
+        <v>0.372207575354464</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>23.113567</v>
       </c>
       <c r="I10">
-        <v>0.3785021335071827</v>
+        <v>0.391882854366506</v>
       </c>
       <c r="J10">
-        <v>0.3785021335071827</v>
+        <v>0.3918828543665061</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3114883333333333</v>
+        <v>0.3114883333333334</v>
       </c>
       <c r="N10">
-        <v>0.934465</v>
+        <v>0.9344650000000001</v>
       </c>
       <c r="O10">
-        <v>0.04874580356984966</v>
+        <v>0.04898936579016542</v>
       </c>
       <c r="P10">
-        <v>0.04874580356984967</v>
+        <v>0.04898936579016543</v>
       </c>
       <c r="Q10">
-        <v>2.399868820739444</v>
+        <v>2.399868820739445</v>
       </c>
       <c r="R10">
         <v>21.598819386655</v>
       </c>
       <c r="S10">
-        <v>0.01845039065071014</v>
+        <v>0.01919809249945489</v>
       </c>
       <c r="T10">
-        <v>0.01845039065071014</v>
+        <v>0.01919809249945489</v>
       </c>
     </row>
   </sheetData>
